--- a/Upkeep_v3/Upkeep_v3/Cocktail_World/Template/Brand.xlsx
+++ b/Upkeep_v3/Upkeep_v3/Cocktail_World/Template/Brand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harsh Araple\Source\Repos\Compel-admin\Upkeep_v3_Projects\Upkeep_v3\Upkeep_v3\Cocktail_World\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE1884A-0A78-4A81-A9F1-0F04C1C1F8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DDA504-E3DA-458E-A4B6-85ECFECAF35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ACF09B5B-3ECC-4994-A933-748FC47FEC47}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Category</t>
   </si>
@@ -53,16 +53,19 @@
     <t>Purchase_Rate_Peg</t>
   </si>
   <si>
-    <t>Selling_Rate_Peg</t>
-  </si>
-  <si>
-    <t>Selling_Rate_Bottle</t>
-  </si>
-  <si>
     <t>xyz</t>
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>BoxQty</t>
+  </si>
+  <si>
+    <t>Purchase_Rate</t>
   </si>
 </sst>
 </file>
@@ -431,7 +434,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -464,25 +467,27 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -497,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Upkeep_v3/Upkeep_v3/Cocktail_World/Template/Brand.xlsx
+++ b/Upkeep_v3/Upkeep_v3/Cocktail_World/Template/Brand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harsh Araple\Source\Repos\Compel-admin\Upkeep_v3_Projects\Upkeep_v3\Upkeep_v3\Cocktail_World\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DDA504-E3DA-458E-A4B6-85ECFECAF35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B10E525-BB65-45C4-8A4D-50985A84B339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ACF09B5B-3ECC-4994-A933-748FC47FEC47}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Category</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Purchase_Rate</t>
+  </si>
+  <si>
+    <t>License_Name</t>
   </si>
 </sst>
 </file>
@@ -113,9 +116,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120B3248-BCEE-423C-B022-06B0D844BE96}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -448,9 +452,10 @@
     <col min="7" max="7" width="21" customWidth="1"/>
     <col min="8" max="8" width="16.44140625" customWidth="1"/>
     <col min="9" max="9" width="14.21875" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,8 +483,11 @@
       <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -502,6 +510,12 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Upkeep_v3/Upkeep_v3/Cocktail_World/Template/Brand.xlsx
+++ b/Upkeep_v3/Upkeep_v3/Cocktail_World/Template/Brand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harsh Araple\Source\Repos\Compel-admin\Upkeep_v3_Projects\Upkeep_v3\Upkeep_v3\Cocktail_World\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B10E525-BB65-45C4-8A4D-50985A84B339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC29D0FF-8467-4C0A-AD6C-029165B3E36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ACF09B5B-3ECC-4994-A933-748FC47FEC47}"/>
   </bookViews>
@@ -438,7 +438,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Upkeep_v3/Upkeep_v3/Cocktail_World/Template/Brand.xlsx
+++ b/Upkeep_v3/Upkeep_v3/Cocktail_World/Template/Brand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harsh Araple\Source\Repos\Compel-admin\Upkeep_v3_Projects\Upkeep_v3\Upkeep_v3\Cocktail_World\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC29D0FF-8467-4C0A-AD6C-029165B3E36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AC481F-075A-4ED5-BC12-585EA7827954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ACF09B5B-3ECC-4994-A933-748FC47FEC47}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Category</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Purchase_Rate</t>
-  </si>
-  <si>
-    <t>License_Name</t>
   </si>
 </sst>
 </file>
@@ -438,7 +435,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -483,9 +480,7 @@
       <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
@@ -514,9 +509,6 @@
       </c>
       <c r="I2">
         <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
